--- a/biology/Médecine/Articulation_huméro-radiale/Articulation_huméro-radiale.xlsx
+++ b/biology/Médecine/Articulation_huméro-radiale/Articulation_huméro-radiale.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Articulation_hum%C3%A9ro-radiale</t>
+          <t>Articulation_huméro-radiale</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'articulation huméro-radiale est une des articulations constituante de l'articulation du coude. Elle unit l'humérus et le radius.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Articulation_hum%C3%A9ro-radiale</t>
+          <t>Articulation_huméro-radiale</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Surfaces articulaires</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'articulation huméro-radiale est une articulation cotyloïde - shpéroïde ou énarthrose du point de vue des surfaces articulaires.
 Elle est composée des surfaces articulaires du capitulum de l'humérus et de la facette articulaire de la tête du radius.
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Articulation_hum%C3%A9ro-radiale</t>
+          <t>Articulation_huméro-radiale</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Anatomie fonctionnelle</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le ligament annulaire lie la tête du radius à l'incisure radiale de l'ulna. Il empêche toute séparation des deux os latéralement. Par conséquent, fonctionnellement l'articulation huméro-radiale n'est pas une articulation cotyloïde.
 Le ligament annulaire protège la tête du radius de la luxation, qui aurait autrement tendance à se produire à cause de la faible profondeur de la cupule radiale. Sans ce ligament, le tendon du muscle biceps brachial serait susceptible d'arracher la tête du radius hors de l'articulation.
@@ -560,7 +576,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Articulation_hum%C3%A9ro-radiale</t>
+          <t>Articulation_huméro-radiale</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -580,10 +596,50 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Subluxation
-Une subluxation de l'articulation huméro-radiale entraîne une pronation douloureuse. Elle est généralement causée par une traction soudaine sur l'avant-bras étendu en pronation, par exemple par un adulte tirant sur un enfant non coopératif ou en balançant l'enfant par les bras pendant le jeu.
-Luxation
-Une luxation de la tête radiale est principalement causée par un traumatisme ou par un état congénital.
+          <t>Subluxation</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Une subluxation de l'articulation huméro-radiale entraîne une pronation douloureuse. Elle est généralement causée par une traction soudaine sur l'avant-bras étendu en pronation, par exemple par un adulte tirant sur un enfant non coopératif ou en balançant l'enfant par les bras pendant le jeu.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Articulation_huméro-radiale</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Articulation_hum%C3%A9ro-radiale</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Aspect clinique</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Luxation</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Une luxation de la tête radiale est principalement causée par un traumatisme ou par un état congénital.
 			Radiographie de l'articulation huméro-radiale normale avec l'axe du radius aligné avec le capitulum.
 			Radiographie de l'articulation huméro-radiale luxée avec l'axe du radius non aligné avec le capitulum.
 </t>
